--- a/master_desa.xlsx
+++ b/master_desa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\Project\Podes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iqbal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3209139-795B-422F-A3CF-D9998527BDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A9771D-4476-4575-8829-AF4FA0A65C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ED24C472-11AE-4CCB-A2B5-52B26008056A}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="236">
   <si>
     <t>kdkec</t>
   </si>
@@ -730,6 +730,12 @@
   </si>
   <si>
     <t>SIMPANG MANDAU BARU - PINTAS</t>
+  </si>
+  <si>
+    <t>NANGA KOMPI (Dusun Senain)</t>
+  </si>
+  <si>
+    <t>NANGA KOMPI (Kantor Desa)</t>
   </si>
 </sst>
 </file>
@@ -798,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +823,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1145,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{434B398D-B7F6-46AC-8686-4FF1A333D535}">
   <dimension ref="A1:E1822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
-      <selection activeCell="I218" sqref="I218"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="D222" sqref="D222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4722,17 +4731,31 @@
         <v>6110041102</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A221"/>
-      <c r="B221"/>
-      <c r="C221"/>
-      <c r="D221"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" s="2"/>
+      <c r="D221" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E221" s="3">
+        <v>6110030008</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A222"/>
-      <c r="B222"/>
-      <c r="C222"/>
-      <c r="D222"/>
+      <c r="B222" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E222" s="3">
+        <v>6110030101</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223"/>
@@ -6346,7 +6369,7 @@
     <row r="1822" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <autoFilter ref="A1:E170" xr:uid="{434B398D-B7F6-46AC-8686-4FF1A333D535}"/>
-  <conditionalFormatting sqref="E1:E1048576">
+  <conditionalFormatting sqref="E1:E220 E223:E1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
